--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/SQL_QUERIES.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/SQL_QUERIES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB06_BULK_IMPORTING_SQL_SERVER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB06_BULK_IMPORTING_T_SQL_QUERIES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -795,115 +795,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TB_FINISHED_PRODUCT_STOCK_ISSUED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    SO_PHIEU Varchar(50),
-    NGAY_TREN_PHIEU datetime,
-    SO_PHIEU_DE_NGHI Varchar(50),
-    SO_PHIEU_KE_HOACH_SX Varchar(50),
-    SO_DON_DAT_HANG Varchar(50),
-    MA_DOI_TUONG Varchar(50),
-    TEN_DOI_TUONG Varchar(50) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    STT_DONG INT,
-    MA_THANH_PHAM Varchar(50),
-    TEN_THANH_PHAM NVARCHAR(MAX) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COLLATE Vietnamese_CI_AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-    DVT nVarchar(50),
-    SO_LUONG Decimal(15,2),
-    GHI_CHU nText,
-    ID_NHAN_VIEN Varchar(10),
-    NGAY_TAO_PHIEU datetime,
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>TB_FINISHED_PRODUCT_STOCK_RECEIVED</t>
     </r>
     <r>
@@ -1014,172 +905,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TB_FINISHED_PRODUCT_STOCK_RETURNED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    SO_PHIEU Varchar(50),
-    NGAY_TREN_PHIEU datetime,
-    SO_PHIEU_DE_NGHI Varchar(50),
-    MA_DOI_TUONG Varchar(50),
-    TEN_DOI_TUONG Varchar(50) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    STT_DONG INT,
-    MA_THANH_PHAM Varchar(50),
-    TEN_THANH_PHAM NVARCHAR(MAX) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COLLATE Vietnamese_CI_AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-    DVT nVarchar(50),
-    SO_LUONG Decimal(15,2),
-    SO_PHIEU_KE_HOACH_SX Varchar(50),
-    GHI_CHU nText,
-    ID_NHAN_VIEN Varchar(10),
-    NGAY_TAO_PHIEU datetime,
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">;
-GO
-CREATE VIEW </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[VIEW_FINISHED_PRODUCT_LEDGER]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AS
-SELECT
-    [MA_THANH_PHAM],
-    [TEN_THANH_PHAM],
-    [DVT],
- FROM [LA_2024].dbo.[TB_FINISHED_PRODUCT_CATEGORIES] 
- WHERE
-    [XOA_SUA] = ''
-LEFT JOIN
-SELECT * FROM [MIEN_BAC_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; '';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>TB_FINISHED_PRODUCT_OPENING_BALANCE</t>
     </r>
     <r>
@@ -1279,6 +1004,1019 @@
     [MA_THANH_PHAM],
     [TEN_THANH_PHAM],
     [DVT]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_ISSUED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    SO_DON_DAT_HANG Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG Varchar(50) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    DON_GIA Decimal(15,2),
+    THANH_TIEN Decimal(15,2),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_RETURNED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG Varchar(50) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    DON_GIA Decimal(15,2),
+    THANH_TIEN Decimal(15,2),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_FINISHED_PRODUCT_STOCK_ISSUED]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+SELECT
+    [MA_THANH_PHAM],
+    [TEN_THANH_PHAM],
+    [DVT],
+    SUM([SO_LUONG]) AS [TONG_SO_LUONG_XUAT],
+    SUM([THANH_TIEN]) AS [TONG_GIA_TRI_XUAT]
+ FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[LA_2024].dbo.[TB_FINISHED_PRODUCT_STOCK_ISSUED]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ WHERE
+    [XOA_SUA] = ''
+GROUP BY
+    [MA_THANH_PHAM],
+    [TEN_THANH_PHAM],
+    [DVT]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_FINISHED_PRODUCT_STOCK_RETURNED]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+SELECT
+    [MA_THANH_PHAM],
+    [TEN_THANH_PHAM],
+    [DVT],
+    SUM([SO_LUONG]) AS [TONG_SO_LUONG_HOAN],
+    SUM([THANH_TIEN]) AS [TONG_GIA_TRI_HOAN]
+ FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[LA_2024].dbo.[TB_FINISHED_PRODUCT_STOCK_RETURNED]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ WHERE
+    [XOA_SUA] = ''
+GROUP BY
+    [MA_THANH_PHAM],
+    [TEN_THANH_PHAM],
+    [DVT]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_FINISHED_PRODUCT_REPORT_STYLE_01]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM],
+TABLE_01.[TEN_THANH_PHAM],
+TABLE_01.[DVT],
+ISNULL(TABLE_02.[SO_LUONG_DAU_KY], 0) AS [SO_LUONG_DAU_KY],
+ISNULL(TABLE_02.[GIA_TRI_DAU_KY], 0) AS [GIA_TRI_DAU_KY],
+ISNULL(TABLE_03.[TONG_SO_LUONG_NHAP], 0) AS [TONG_SO_LUONG_NHAP],
+ISNULL(TABLE_03.[TONG_GIA_TRI_NHAP], 0) AS [TONG_GIA_TRI_NHAP],
+ISNULL(TABLE_04.[TONG_SO_LUONG_XUAT], 0) AS [TONG_SO_LUONG_XUAT],
+ISNULL(TABLE_04.[TONG_GIA_TRI_XUAT], 0) AS [TONG_GIA_TRI_XUAT],
+ISNULL(TABLE_05.[TONG_SO_LUONG_HOAN], 0) AS [TONG_SO_LUONG_HOAN],
+ISNULL(TABLE_05.[TONG_GIA_TRI_HOAN], 0) AS [TONG_GIA_TRI_HOAN],
+ISNULL(TABLE_02.[SO_LUONG_DAU_KY], 0) + ISNULL(TABLE_03.[TONG_SO_LUONG_NHAP], 0) - ISNULL(TABLE_04.[TONG_SO_LUONG_XUAT], 0) + ISNULL(TABLE_05.[TONG_SO_LUONG_HOAN], 0) As [TONG_SO_LUONG_TON],
+ISNULL(TABLE_02.[GIA_TRI_DAU_KY], 0) + ISNULL(TABLE_03.[TONG_GIA_TRI_NHAP], 0) - ISNULL(TABLE_04.[TONG_GIA_TRI_XUAT], 0) + ISNULL(TABLE_05.[TONG_GIA_TRI_HOAN], 0) As [TONG_GIA_TRI_TON]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[TB_FINISHED_PRODUCT_CATEGORIES] AS TABLE_01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[TB_FINISHED_PRODUCT_OPENING_BALANCE] AS TABLE_02
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_02.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[VIEW_FINISHED_PRODUCT_STOCK_RECEIVED] AS TABLE_03
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_03.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[VIEW_FINISHED_PRODUCT_STOCK_ISSUED] AS TABLE_04
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_04.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[VIEW_FINISHED_PRODUCT_STOCK_RETURNED] AS TABLE_05
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_05.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[XOA_SUA] = '';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_FINISHED_PRODUCT_REPORT_STANDARD]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM],
+TABLE_01.[TEN_THANH_PHAM],
+TABLE_01.[DVT],
+ISNULL(TABLE_02.[SO_LUONG_DAU_KY], 0) AS [SO_LUONG_DAU_KY],
+ISNULL(TABLE_02.[GIA_TRI_DAU_KY], 0) AS [GIA_TRI_DAU_KY],
+ISNULL(TABLE_03.[TONG_SO_LUONG_NHAP], 0) + ISNULL(TABLE_05.[TONG_SO_LUONG_HOAN], 0) AS [TONG_SO_LUONG_NHAP],
+ISNULL(TABLE_03.[TONG_GIA_TRI_NHAP], 0) + ISNULL(TABLE_05.[TONG_GIA_TRI_HOAN], 0) AS [TONG_GIA_TRI_NHAP],
+ISNULL(TABLE_04.[TONG_SO_LUONG_XUAT], 0) AS [TONG_SO_LUONG_XUAT],
+ISNULL(TABLE_04.[TONG_GIA_TRI_XUAT], 0) AS [TONG_GIA_TRI_XUAT],
+ISNULL(TABLE_02.[SO_LUONG_DAU_KY], 0) + ISNULL(TABLE_03.[TONG_SO_LUONG_NHAP], 0) - ISNULL(TABLE_04.[TONG_SO_LUONG_XUAT], 0) + ISNULL(TABLE_05.[TONG_SO_LUONG_HOAN], 0) As [TONG_SO_LUONG_TON],
+ISNULL(TABLE_02.[GIA_TRI_DAU_KY], 0) + ISNULL(TABLE_03.[TONG_GIA_TRI_NHAP], 0) - ISNULL(TABLE_04.[TONG_GIA_TRI_XUAT], 0) + ISNULL(TABLE_05.[TONG_GIA_TRI_HOAN], 0) As [TONG_GIA_TRI_TON]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[TB_FINISHED_PRODUCT_CATEGORIES] AS TABLE_01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[TB_FINISHED_PRODUCT_OPENING_BALANCE] AS TABLE_02
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_02.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[VIEW_FINISHED_PRODUCT_STOCK_RECEIVED] AS TABLE_03
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_03.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[VIEW_FINISHED_PRODUCT_STOCK_ISSUED] AS TABLE_04
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_04.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[LA_2024].dbo.[VIEW_FINISHED_PRODUCT_STOCK_RETURNED] AS TABLE_05
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[MA_THANH_PHAM] = TABLE_05.[MA_THANH_PHAM]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TABLE_01.[XOA_SUA] = '';</t>
     </r>
   </si>
 </sst>
@@ -1710,7 +2448,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1748,24 +2486,35 @@
     </row>
     <row r="5" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="202.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/SQL_QUERIES.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/SQL_QUERIES.xlsx
@@ -795,116 +795,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TB_FINISHED_PRODUCT_STOCK_RECEIVED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    SO_PHIEU Varchar(50),
-    NGAY_TREN_PHIEU datetime,
-    SO_PHIEU_DE_NGHI Varchar(50),
-    SO_PHIEU_KE_HOACH_SX Varchar(50),
-    MA_DOI_TUONG Varchar(50),
-    TEN_DOI_TUONG Varchar(50) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    STT_DONG INT,
-    MA_THANH_PHAM Varchar(50),
-    TEN_THANH_PHAM NVARCHAR(MAX) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COLLATE Vietnamese_CI_AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-    DVT nVarchar(50),
-    SO_LUONG Decimal(15,2),
-    DON_GIA Decimal(15,2),
-    THANH_TIEN Decimal(15,2),
-    GHI_CHU nText,
-    ID_NHAN_VIEN Varchar(10),
-    NGAY_TAO_PHIEU datetime,
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>TB_FINISHED_PRODUCT_OPENING_BALANCE</t>
     </r>
     <r>
@@ -1004,227 +894,6 @@
     [MA_THANH_PHAM],
     [TEN_THANH_PHAM],
     [DVT]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_FINISHED_PRODUCT_STOCK_ISSUED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    SO_PHIEU Varchar(50),
-    NGAY_TREN_PHIEU datetime,
-    SO_PHIEU_DE_NGHI Varchar(50),
-    SO_PHIEU_KE_HOACH_SX Varchar(50),
-    SO_DON_DAT_HANG Varchar(50),
-    MA_DOI_TUONG Varchar(50),
-    TEN_DOI_TUONG Varchar(50) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    STT_DONG INT,
-    MA_THANH_PHAM Varchar(50),
-    TEN_THANH_PHAM NVARCHAR(MAX) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COLLATE Vietnamese_CI_AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-    DVT nVarchar(50),
-    SO_LUONG Decimal(15,2),
-    DON_GIA Decimal(15,2),
-    THANH_TIEN Decimal(15,2),
-    GHI_CHU nText,
-    ID_NHAN_VIEN Varchar(10),
-    NGAY_TAO_PHIEU datetime,
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_FINISHED_PRODUCT_STOCK_RETURNED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    SO_PHIEU Varchar(50),
-    NGAY_TREN_PHIEU datetime,
-    SO_PHIEU_DE_NGHI Varchar(50),
-    MA_DOI_TUONG Varchar(50),
-    TEN_DOI_TUONG Varchar(50) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    STT_DONG INT,
-    MA_THANH_PHAM Varchar(50),
-    TEN_THANH_PHAM NVARCHAR(MAX) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COLLATE Vietnamese_CI_AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-    DVT nVarchar(50),
-    SO_LUONG Decimal(15,2),
-    DON_GIA Decimal(15,2),
-    THANH_TIEN Decimal(15,2),
-    SO_PHIEU_KE_HOACH_SX Varchar(50),
-    GHI_CHU nText,
-    ID_NHAN_VIEN Varchar(10),
-    NGAY_TAO_PHIEU datetime,
-    XOA_SUA Varchar(10),
-)</t>
     </r>
   </si>
   <si>
@@ -2017,6 +1686,337 @@
       </rPr>
       <t xml:space="preserve">
 TABLE_01.[XOA_SUA] = '';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_RECEIVED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    DON_GIA Decimal(15,2),
+    THANH_TIEN Decimal(15,2),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_ISSUED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    SO_DON_DAT_HANG Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    DON_GIA Decimal(15,2),
+    THANH_TIEN Decimal(15,2),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_RETURNED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    DON_GIA Decimal(15,2),
+    THANH_TIEN Decimal(15,2),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
     </r>
   </si>
 </sst>
@@ -2448,7 +2448,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2486,32 +2486,32 @@
     </row>
     <row r="5" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>

--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/SQL_QUERIES.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/SQL_QUERIES.xlsx
@@ -2447,8 +2447,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
